--- a/data/2024 Naeem-Mix13,°C,food/14_days.xlsx
+++ b/data/2024 Naeem-Mix13,°C,food/14_days.xlsx
@@ -441,7 +441,7 @@
     <col min="12" max="12" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="6">
         <v>0.001</v>
       </c>
@@ -521,7 +521,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="6">
         <v>0.01</v>
       </c>
@@ -545,9 +545,11 @@
       <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="L4" s="5">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="6">
         <v>0.0316</v>
       </c>
@@ -571,7 +573,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="6">
         <v>0.1</v>
       </c>
@@ -595,7 +597,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="6">
         <v>0.316</v>
       </c>
@@ -619,7 +621,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -643,7 +645,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="6">
         <v>3.16</v>
       </c>

--- a/data/2024 Naeem-Mix13,°C,food/14_days.xlsx
+++ b/data/2024 Naeem-Mix13,°C,food/14_days.xlsx
@@ -441,7 +441,7 @@
     <col min="12" max="12" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>77.7733333333333</v>
       </c>
       <c r="E2" s="6">
-        <v>66.66</v>
+        <v>68.8844444444444</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -497,7 +497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="6">
         <v>0.001</v>
       </c>
@@ -521,7 +521,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="6">
         <v>0.01</v>
       </c>
@@ -549,7 +549,7 @@
         <v>0.0316</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="6">
         <v>0.0316</v>
       </c>
@@ -573,7 +573,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6">
         <v>0.1</v>
       </c>
@@ -597,7 +597,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="6">
         <v>0.316</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="6">
         <v>3.16</v>
       </c>
